--- a/biology/Botanique/Cola_suboppositifolia/Cola_suboppositifolia.xlsx
+++ b/biology/Botanique/Cola_suboppositifolia/Cola_suboppositifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cola suboppositifolia Cheek[3] est une espèce de plantes de la famille des Malvaceae et du genre Cola, selon la classification phylogénétique. 
-C'est un arbuste de 2 à 6 m de hauteur, de forêt pluviale à feuilles persistantes des plaines, généralement sur des sols sablonneux, de 60 à 400 m d'altitude. Cette espèce a été classée en danger critique en raison de la dégradation de l'habitat due à l'exploitation forestière et au déboisement des plantations à grande échelle. Toutefois, on sait maintenant que Cola suboppositifolia existe à la fois dans le parc national de Korup, où il existe une protection à long terme et à la limite du sanctuaire de faune sauvage de Banyang-Mbo, par conséquent, cette espèce a été réévaluée et classée comme Vulnérable. Elle se produit du parc national de Korup à l'extrémité nord-ouest des contreforts du mont Cameroun[pas clair][4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cola suboppositifolia Cheek est une espèce de plantes de la famille des Malvaceae et du genre Cola, selon la classification phylogénétique. 
+C'est un arbuste de 2 à 6 m de hauteur, de forêt pluviale à feuilles persistantes des plaines, généralement sur des sols sablonneux, de 60 à 400 m d'altitude. Cette espèce a été classée en danger critique en raison de la dégradation de l'habitat due à l'exploitation forestière et au déboisement des plantations à grande échelle. Toutefois, on sait maintenant que Cola suboppositifolia existe à la fois dans le parc national de Korup, où il existe une protection à long terme et à la limite du sanctuaire de faune sauvage de Banyang-Mbo, par conséquent, cette espèce a été réévaluée et classée comme Vulnérable. Elle se produit du parc national de Korup à l'extrémité nord-ouest des contreforts du mont Cameroun[pas clair].
 </t>
         </is>
       </c>
